--- a/biology/Histoire de la zoologie et de la botanique/William_Beebe/William_Beebe.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Beebe/William_Beebe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles William « Will » Beebe (29 juillet 1877 - 4 juin 1962) est un naturaliste, un explorateur et un auteur américain. Il est considéré comme l'inventeur de la bathysphère.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Brooklyn, New York, il fut le conservateur du département d'ornithologie pour la société zoologique de New York de 1899 à 1952. En 1919, il devint également directeur du département des recherches tropicales. Il était en outre un collaborateur régulier du National Geographic Magazine et un auteur de livres documentaires à succès, ses droits d'auteur l'aidant à financer ses expéditions.
-Son intérêt pour l'exploration des fonds marins l'amena à travailler à l'invention de la bathysphère en compagnie d'Otis Barton[1]. En 1930, il descendit à 183 m au large de Nonsuch Island (Bermudes). En 1934, il établit un record de descente à 923 m. Beebe effectua au total 35 plongées dans la bathysphère.
+Son intérêt pour l'exploration des fonds marins l'amena à travailler à l'invention de la bathysphère en compagnie d'Otis Barton. En 1930, il descendit à 183 m au large de Nonsuch Island (Bermudes). En 1934, il établit un record de descente à 923 m. Beebe effectua au total 35 plongées dans la bathysphère.
 </t>
         </is>
       </c>
